--- a/data/following_study/Epilepsy study mapping file with patient info updated 1.22.24 for microbiome analysis.xlsx
+++ b/data/following_study/Epilepsy study mapping file with patient info updated 1.22.24 for microbiome analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krmunana/Desktop/AKC Dysbiosis Study Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixuanyang/Documents/Projects/Microbiome/CanineEpilepsy2/data/following_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F99DE70-63DB-6149-9674-7B4BB1F159CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84576CC-39E6-7C4B-9A2A-D2DBA8723870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="5660" windowWidth="38940" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4820" windowWidth="34560" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1196,13 +1196,13 @@
     <t>Breed Group (3)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Breed Group (3)</t>
-  </si>
-  <si>
     <t>Sight Hound</t>
   </si>
   <si>
     <t>Breed Group (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Breed Group (2)</t>
   </si>
 </sst>
 </file>
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1883,10 +1883,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>385</v>
@@ -5223,7 +5223,7 @@
         <v>36</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
@@ -5297,7 +5297,7 @@
         <v>36</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
@@ -5575,7 +5575,7 @@
         <v>36</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
